--- a/biology/Médecine/Isthme_cavo-tricuspide/Isthme_cavo-tricuspide.xlsx
+++ b/biology/Médecine/Isthme_cavo-tricuspide/Isthme_cavo-tricuspide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'isthme cavo-tricuspide est un tissu fibreux se situant dans le cœur, entre la partie basse de la valve tricuspide (séparant l'oreillette droite du ventricule droit) et la jonction entre la veine cave inférieure et cette même oreillette. Il est une cible lors de l'ablation du flutter auriculaire.
  Portail de la médecine   Portail de l’anatomie                    </t>
